--- a/docs/Analisis - Experimento.xlsx
+++ b/docs/Analisis - Experimento.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrés Parra\Sync\Icesi\S6\Ingeniería de software IV\proyecto final\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyncthingServiceAcct\Sync\Icesi\S6\Ingeniería de software IV\proyecto final\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FAA829-B08F-4610-AB4D-0099E7ACA1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4E844F-79B0-4A08-9495-D40117C05152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="623" xr2:uid="{968272DF-85B1-48E7-9487-3F6E159DBED0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="623" activeTab="2" xr2:uid="{968272DF-85B1-48E7-9487-3F6E159DBED0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Monolito y threadpool clientes" sheetId="1" r:id="rId1"/>
+    <sheet name="Nclient - 1worker - 1database" sheetId="2" r:id="rId2"/>
+    <sheet name="Nclient - Nworker - 1database" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
   <si>
     <t>Tiempo de respuesta</t>
   </si>
@@ -116,12 +116,126 @@
   <si>
     <t>M</t>
   </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>Cl1</t>
+  </si>
+  <si>
+    <t>Cl2</t>
+  </si>
+  <si>
+    <t>Cl3</t>
+  </si>
+  <si>
+    <t>Total peticiones por segundo</t>
+  </si>
+  <si>
+    <t>Iter</t>
+  </si>
+  <si>
+    <t>CitizenId</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>IsPrime</t>
+  </si>
+  <si>
+    <t>DbTime</t>
+  </si>
+  <si>
+    <t>ProcessTime</t>
+  </si>
+  <si>
+    <t>QueryTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>ResponseTime</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>P/s</t>
+  </si>
+  <si>
+    <t>Tiempo respuesta</t>
+  </si>
+  <si>
+    <t>Tiempo mínimo</t>
+  </si>
+  <si>
+    <t>Tiempo máximo</t>
+  </si>
+  <si>
+    <t>Número de conexiones</t>
+  </si>
+  <si>
+    <t>P/s esperadas</t>
+  </si>
+  <si>
+    <t>Por query a la DB</t>
+  </si>
+  <si>
+    <t>Cantidad máxima</t>
+  </si>
+  <si>
+    <t>Cantidad mínima</t>
+  </si>
+  <si>
+    <t>P/ms</t>
+  </si>
+  <si>
+    <t>Réplicas de DB</t>
+  </si>
+  <si>
+    <t>C. peticiones</t>
+  </si>
+  <si>
+    <t>Cantidad de tiempo</t>
+  </si>
+  <si>
+    <t>Througput</t>
+  </si>
+  <si>
+    <t>Peticiones / s</t>
+  </si>
+  <si>
+    <t>Tiempo de respuesta promedio</t>
+  </si>
+  <si>
+    <t>Tiempo del worker promedio</t>
+  </si>
+  <si>
+    <t>Peticiones Por segundo enviadas</t>
+  </si>
+  <si>
+    <t>Tiempos de respuesta promedios</t>
+  </si>
+  <si>
+    <t>Tiempos de procesamiento en el worker promedios</t>
+  </si>
+  <si>
+    <t>Peticiones por segundo esperadas</t>
+  </si>
+  <si>
+    <t>Mínimo de workers necesarios</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +272,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +305,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -202,11 +335,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -222,6 +392,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,7 +565,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$J$2</c:f>
+              <c:f>'Monolito y threadpool clientes'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -437,7 +648,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$H$3:$H$17</c:f>
+              <c:f>'Monolito y threadpool clientes'!$H$3:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -491,7 +702,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$J$3:$J$17</c:f>
+              <c:f>'Monolito y threadpool clientes'!$J$3:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -817,7 +1028,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$J$2</c:f>
+              <c:f>'Monolito y threadpool clientes'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -900,7 +1111,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$17</c:f>
+              <c:f>'Monolito y threadpool clientes'!$B$3:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -954,7 +1165,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$J$3:$J$17</c:f>
+              <c:f>'Monolito y threadpool clientes'!$J$3:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1281,7 +1492,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$R$2</c:f>
+              <c:f>'Monolito y threadpool clientes'!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1323,7 +1534,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$Q$3:$Q$6</c:f>
+              <c:f>'Monolito y threadpool clientes'!$Q$3:$Q$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1343,7 +1554,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$R$3:$R$6</c:f>
+              <c:f>'Monolito y threadpool clientes'!$R$3:$R$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1540,6 +1751,818 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo de respuesta </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>promedio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Nclient - 1worker - 1database'!$J$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo de respuesta promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Nclient - 1worker - 1database'!$F$30:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>115899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>237364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>273081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>356771</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>348814</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336690</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Nclient - 1worker - 1database'!$J$30:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5082.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8199.6666666666661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9082.3333333333339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-073D-45F9-AEFA-76CBEDD01219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="339909216"/>
+        <c:axId val="125321504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="339909216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125321504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="125321504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339909216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo de respuesta </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>promedio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Nclient - 1worker - 1database'!$N$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo del worker promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Nclient - 1worker - 1database'!$F$30:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>115899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>237364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>273081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>356771</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>348814</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336690</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Nclient - 1worker - 1database'!$N$30:$N$38</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2955.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2781.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5471.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5293</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB42-439D-9AAC-DAEDE207C0C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="339909216"/>
+        <c:axId val="125321504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="339909216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125321504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="125321504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339909216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1660,6 +2683,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2842,6 +3945,1038 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3592,6 +5727,1794 @@
             <a:rPr lang="es-CO" sz="1100" kern="1200"/>
             <a:t>Cantidad promedio de peticiones que envía un cliente por segundo.</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800674</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7382FBF-7E59-457E-862E-FECA7F750820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="238125"/>
+          <a:ext cx="4115374" cy="1228896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>791148</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71788B44-FA7D-4D45-BB76-D87E35D977D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="1714500"/>
+          <a:ext cx="4105848" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56208</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>89493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>790203</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>70617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE86963-2773-4094-A5E8-3B0442C5CC47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="893571" y="3114466"/>
+          <a:ext cx="4083445" cy="1226700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>567219</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>74916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>598797</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>58823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8531C6E-3D2E-46D1-A263-5C2399BCD4FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410646" y="256854"/>
+          <a:ext cx="4010585" cy="1257475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>577921</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561867</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>81405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042721A3-A203-45BB-9257-C4A11B64E6BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6421348" y="1744467"/>
+          <a:ext cx="3962953" cy="1247949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>417388</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>553755</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{630B8010-4165-4497-BFF5-3BE757E8AFB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6260815" y="3178568"/>
+          <a:ext cx="4115374" cy="1247949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>567219</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>64213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>167384</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB877DE4-E745-47ED-8B7A-394E0C62F8A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10584522" y="246151"/>
+          <a:ext cx="3972479" cy="1267002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>567219</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>253121</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C436DF-8F2F-477A-BC76-71BF66943A15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10584522" y="1744465"/>
+          <a:ext cx="4058216" cy="1257475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>599326</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>96319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161386</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>89753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0AE8C82-F742-4129-BCDC-095CD094746E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10616629" y="3189268"/>
+          <a:ext cx="3934374" cy="1267002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>53512</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>21405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>724996</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E08709-BBC8-4893-9B99-8F9DE05B14AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15914242" y="203343"/>
+          <a:ext cx="4010585" cy="1286054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>64215</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>669014</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1504F94-3A60-4561-8506-FE1C1051AC1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15924945" y="1690956"/>
+          <a:ext cx="3943900" cy="1247949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>42810</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>628557</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18129947-5AE5-43EB-801F-4DDAD71FB6AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15903540" y="3178568"/>
+          <a:ext cx="3924848" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85619</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>64215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>680892</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>172903</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92492BEF-790C-4FBE-86CC-72EE5D892381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20120226" y="3157164"/>
+          <a:ext cx="3934374" cy="1200318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>53512</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>96321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>667838</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99669527-5DC9-40A9-97E3-941D48DF91A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20088119" y="1733765"/>
+          <a:ext cx="3953427" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>32108</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>694065</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>45770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCD6547-FAE3-4B4A-B8C1-F6FD19480BE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20066715" y="224748"/>
+          <a:ext cx="4001058" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>181940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>32108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>767687</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>54121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{212774EA-7C94-4978-A9D4-619B23C3FB4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24390423" y="3125057"/>
+          <a:ext cx="3924848" cy="1295581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>181940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>777213</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3558BA-D711-4959-AF12-ABA23DAD7992}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24390423" y="1744467"/>
+          <a:ext cx="3934374" cy="1257475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>173806</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>769079</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>93499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B740CF2-7ACD-4407-8066-871D1A247386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24382289" y="291530"/>
+          <a:ext cx="3934374" cy="1257475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>469533</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>140538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>866318</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>8550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF1B7F2-924B-4224-859F-0AC03A84D506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>370417</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>132202</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>119366</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Gráfico 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0BDCF7-1791-440A-967A-280F539A4E43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>13230</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>13230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>519484</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28168</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="CuadroTexto 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA4AF5B-1236-4849-A40D-BCE61181BB44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13665730" y="7223126"/>
+          <a:ext cx="3840004" cy="755771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Es</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t> por esto, que cada worker en teoría es capaz de manejar, sin sobrepasar un segundo de delay, aproximadamente 130000 peticiones por segundo.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>528775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3315F509-1543-4779-A3AB-811BD18AF294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="190500"/>
+          <a:ext cx="3477110" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>785989</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A19CEAD-9D85-4798-AD7C-592A212B0BE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="1628775"/>
+          <a:ext cx="3753374" cy="1267002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>385886</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E5E4D7-E3AB-40BA-9A03-549E3096DD4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="3162300"/>
+          <a:ext cx="3372321" cy="1228896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>327178</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BFDE36-58D0-462C-9CE3-1C243C920772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="2476500"/>
+          <a:ext cx="5115639" cy="1981477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>693421</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>143134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52442953-7426-44DC-9A6E-189F78708EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="276225"/>
+          <a:ext cx="6430272" cy="1857634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28864</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57727</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>125329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABEC97D5-2C0B-4896-AB24-903F24698EED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="868568" y="5945149"/>
+          <a:ext cx="3851396" cy="872746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Da un tiempo de respuesta incluso más alto al que daría con 1 solo worker, esto debido a que los</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t> workers tienen mayor capacidad de carga, entonces ahora el cuello de botella se encuentra es en la base de datos.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>808181</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>464037</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>122116</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CuadroTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{755AE134-CA12-4790-A9EB-019F631AB4F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5460777" y="9317404"/>
+          <a:ext cx="3868837" cy="1037981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Viendo los tiempos a detalle, es claro que el delay ahora se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>encuentra en el servidor que se comunica</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t> con la base de datos, debido a la baja cantidad de conexiones que puede tener concurrentes.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666141</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>162929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>683612</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>16332</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CuadroTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5014683-A878-43CA-B237-A99253690424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666141" y="8710363"/>
+          <a:ext cx="3840004" cy="730706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Teniendo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t> en cuenta que para estas pruebas, el número de conexiones era de 70 (debido a conexiones ya ocupadas en la base de datos), entonces concuerda con la teoría calculada:</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>350921</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>388520</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>75197</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto de flecha 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C92850-0484-4096-8695-D244A88F3A64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2030329" y="8033586"/>
+          <a:ext cx="37599" cy="2168190"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>678674</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>137863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>696145</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>3799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CuadroTexto 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F184D0F-1FF4-49AE-8A36-B866CF673772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1518378" y="12608093"/>
+          <a:ext cx="3840004" cy="743239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Es la capacidad máxima</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t> de respuesta de la arquitectura actualmente, debido al cuello de botella encontrado en las conexiones a la base de datos</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>777039</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>37599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>601579</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>75197</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conector recto de flecha 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B705FC70-4DB4-4D0C-930F-A2E2D6CCCF3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4599572" y="9637796"/>
+          <a:ext cx="664244" cy="563980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200526</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>12533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>413585</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>75197</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Conector recto de flecha 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF1B3749-1B3D-4BF3-B41F-AEFD01506133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5702467" y="12031579"/>
+          <a:ext cx="1905000" cy="62664"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>26963</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>909204</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>3798</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="CuadroTexto 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BAF6FDF-27F6-4911-B979-EB2284EADF98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11632424" y="11831053"/>
+          <a:ext cx="3840004" cy="755771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Siguiendo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t> esa misma lógica, harían falta entonces un mínimo de 600 conexiones para TENER LA POSIBILIDAD (aunque sea mínima) de poder manejar 1 millón de peticiones por segundo.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>920704</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>886902</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>164934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="CuadroTexto 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD84311C-C5E2-4304-A29A-2E094F517724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11598730" y="2450477"/>
+          <a:ext cx="3851396" cy="872746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Esta prueba fue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t> tomada con 1 solo cliente y 2 trabajadores, para mandar toda la carga del trabajo a la base de datos y así saber cuanto es capaz de soportar cada conexión.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3963,24 +7886,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C32BA99-B686-4E75-89AA-2D402D558CC1}">
   <dimension ref="B2:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A7" zoomScale="63" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="25.28515625" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.25" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="17" max="17" width="25.25" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -4021,7 +7944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18">
       <c r="B3">
         <v>1000000</v>
       </c>
@@ -4065,7 +7988,7 @@
         <v>74622.150683278407</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18">
       <c r="B4">
         <v>1000000</v>
       </c>
@@ -4109,7 +8032,7 @@
         <v>80025.706213159458</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18">
       <c r="B5">
         <v>1000000</v>
       </c>
@@ -4153,7 +8076,7 @@
         <v>86721.155155385582</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18">
       <c r="B6">
         <v>2000000</v>
       </c>
@@ -4198,7 +8121,7 @@
         <v>84628.229782797178</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18">
       <c r="B7">
         <v>2000000</v>
       </c>
@@ -4236,7 +8159,7 @@
         <v>74013.766560580203</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18">
       <c r="B8">
         <v>2000000</v>
       </c>
@@ -4274,7 +8197,7 @@
         <v>82108.547499794702</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18">
       <c r="B9">
         <v>3000000</v>
       </c>
@@ -4312,7 +8235,7 @@
         <v>80547.724526782098</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18">
       <c r="B10">
         <v>3000000</v>
       </c>
@@ -4336,7 +8259,7 @@
         <v>141552.8243446663</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" ref="I10:I12" si="5">H10/3</f>
+        <f t="shared" ref="I10:I11" si="5">H10/3</f>
         <v>47184.274781555432</v>
       </c>
       <c r="J10" s="1">
@@ -4350,7 +8273,7 @@
         <v>87611.704923777797</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18">
       <c r="B11">
         <v>3000000</v>
       </c>
@@ -4388,7 +8311,7 @@
         <v>71535.875241433503</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18">
       <c r="B12">
         <v>4000000</v>
       </c>
@@ -4426,7 +8349,7 @@
         <v>78324.678874009202</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18">
       <c r="B13">
         <v>4000000</v>
       </c>
@@ -4464,7 +8387,7 @@
         <v>89503.7593984962</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18">
       <c r="B14">
         <v>4000000</v>
       </c>
@@ -4502,7 +8425,7 @@
         <v>83279.420338135998</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18">
       <c r="B15">
         <v>5000000</v>
       </c>
@@ -4540,7 +8463,7 @@
         <v>83508.936028060794</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18">
       <c r="B16">
         <v>5000000</v>
       </c>
@@ -4578,7 +8501,7 @@
         <v>87921.920337641699</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17">
         <v>5000000</v>
       </c>
@@ -4606,7 +8529,7 @@
         <v>35021.329016740281</v>
       </c>
       <c r="J17" s="1">
-        <f>AVERAGE(15380.646775, 18427.211434,16690.197254, 17463.452011,18496.391978)</f>
+        <f>AVERAGE(15380.646775, 18427.211434,16690.1972539999, 17463.452011,18496.391978)</f>
         <v>17291.5798904</v>
       </c>
       <c r="N17" t="s">
@@ -4616,7 +8539,7 @@
         <v>89391.739674593206</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="N18" t="s">
         <v>14</v>
       </c>
@@ -4624,7 +8547,7 @@
         <v>90614.952424105097</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="N19" t="s">
         <v>14</v>
       </c>
@@ -4632,7 +8555,7 @@
         <v>82618.854829381104</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="N20" t="s">
         <v>14</v>
       </c>
@@ -4640,7 +8563,7 @@
         <v>87667.543398211405</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15">
       <c r="N21" t="s">
         <v>14</v>
       </c>
@@ -4648,7 +8571,7 @@
         <v>81130.709939148001</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15">
       <c r="N22" t="s">
         <v>14</v>
       </c>
@@ -4656,7 +8579,7 @@
         <v>81109.088323140299</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="6" t="s">
         <v>18</v>
       </c>
@@ -4684,7 +8607,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="6" t="s">
         <v>16</v>
       </c>
@@ -4698,11 +8621,11 @@
         <v>-14670.05445483756</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="6" t="s">
         <v>15</v>
       </c>
@@ -4718,7 +8641,7 @@
         <v>84912.597020210873</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12">
       <c r="F40" s="2"/>
     </row>
   </sheetData>
@@ -4731,4 +8654,1241 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E396289D-734B-4F0C-8CD0-B5B44B21C678}">
+  <dimension ref="B28:V80"/>
+  <sheetViews>
+    <sheetView topLeftCell="F17" zoomScale="72" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="28" spans="2:22" ht="27" customHeight="1">
+      <c r="B28" s="19"/>
+      <c r="C28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="2:22" ht="45">
+      <c r="B29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="5" cm="1">
+        <f t="array" ref="Q29:Q30">TRANSPOSE(LINEST(N30:N38,F30:F38))</f>
+        <v>2.0367992728807974E-2</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" ht="15">
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9">
+        <v>115899</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9">
+        <f>SUM(C30:E30)</f>
+        <v>115899</v>
+      </c>
+      <c r="G30" s="9">
+        <v>2723</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="11">
+        <f>AVERAGE(G30:I30)</f>
+        <v>2723</v>
+      </c>
+      <c r="K30" s="9">
+        <v>483</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="11">
+        <f>AVERAGE(K30:M30)</f>
+        <v>483</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>-1661.5350412839612</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" ht="15">
+      <c r="B31" s="4">
+        <v>2</v>
+      </c>
+      <c r="C31" s="9">
+        <v>104650</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9">
+        <f t="shared" ref="F31:F38" si="0">SUM(C31:E31)</f>
+        <v>104650</v>
+      </c>
+      <c r="G31" s="9">
+        <v>2730</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11">
+        <f t="shared" ref="J31:J38" si="1">AVERAGE(G31:I31)</f>
+        <v>2730</v>
+      </c>
+      <c r="K31" s="9">
+        <v>749</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="11">
+        <f t="shared" ref="N31:N38" si="2">AVERAGE(K31:M31)</f>
+        <v>749</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="2:22" ht="15">
+      <c r="B32" s="4">
+        <v>3</v>
+      </c>
+      <c r="C32" s="9">
+        <v>113472</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9">
+        <f t="shared" si="0"/>
+        <v>113472</v>
+      </c>
+      <c r="G32" s="9">
+        <v>2436</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="11">
+        <f t="shared" si="1"/>
+        <v>2436</v>
+      </c>
+      <c r="K32" s="9">
+        <v>612</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="11">
+        <f t="shared" si="2"/>
+        <v>612</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="7">
+        <f>(S29-Q30)/Q29</f>
+        <v>130672.42691615621</v>
+      </c>
+      <c r="S32" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="T32" s="25"/>
+      <c r="U32" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="V32" s="13"/>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="4">
+        <v>4</v>
+      </c>
+      <c r="C33" s="9">
+        <v>120076</v>
+      </c>
+      <c r="D33" s="9">
+        <v>117288</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9">
+        <f t="shared" si="0"/>
+        <v>237364</v>
+      </c>
+      <c r="G33" s="9">
+        <v>5062</v>
+      </c>
+      <c r="H33" s="9">
+        <v>5103</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="11">
+        <f t="shared" si="1"/>
+        <v>5082.5</v>
+      </c>
+      <c r="K33" s="9">
+        <v>2785</v>
+      </c>
+      <c r="L33" s="9">
+        <v>3126</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c r="N33" s="11">
+        <f t="shared" si="2"/>
+        <v>2955.5</v>
+      </c>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34" s="4">
+        <v>5</v>
+      </c>
+      <c r="C34" s="9">
+        <v>102228</v>
+      </c>
+      <c r="D34" s="9">
+        <v>102817</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9">
+        <f t="shared" si="0"/>
+        <v>205045</v>
+      </c>
+      <c r="G34" s="9">
+        <v>5224</v>
+      </c>
+      <c r="H34" s="9">
+        <v>5208</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="11">
+        <f t="shared" si="1"/>
+        <v>5216</v>
+      </c>
+      <c r="K34" s="9">
+        <v>2957</v>
+      </c>
+      <c r="L34" s="9">
+        <v>3283</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c r="N34" s="11">
+        <f t="shared" si="2"/>
+        <v>3120</v>
+      </c>
+      <c r="S34" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="T34" s="25"/>
+      <c r="U34" s="13">
+        <f>ROUNDUP(U32/Q32,0)</f>
+        <v>8</v>
+      </c>
+      <c r="V34" s="13"/>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35" s="4">
+        <v>6</v>
+      </c>
+      <c r="C35" s="9">
+        <v>137249</v>
+      </c>
+      <c r="D35" s="9">
+        <v>135832</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9">
+        <f t="shared" si="0"/>
+        <v>273081</v>
+      </c>
+      <c r="G35" s="9">
+        <v>7122</v>
+      </c>
+      <c r="H35" s="9">
+        <v>6978</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="11">
+        <f t="shared" si="1"/>
+        <v>7050</v>
+      </c>
+      <c r="K35" s="9">
+        <v>2932</v>
+      </c>
+      <c r="L35" s="9">
+        <v>2631</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c r="N35" s="11">
+        <f t="shared" si="2"/>
+        <v>2781.5</v>
+      </c>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36" s="4">
+        <v>7</v>
+      </c>
+      <c r="C36" s="9">
+        <v>118160</v>
+      </c>
+      <c r="D36" s="9">
+        <v>119818</v>
+      </c>
+      <c r="E36" s="9">
+        <v>118793</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="0"/>
+        <v>356771</v>
+      </c>
+      <c r="G36" s="9">
+        <v>8352</v>
+      </c>
+      <c r="H36" s="9">
+        <v>8116</v>
+      </c>
+      <c r="I36" s="9">
+        <v>8131</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" si="1"/>
+        <v>8199.6666666666661</v>
+      </c>
+      <c r="K36" s="9">
+        <v>5204</v>
+      </c>
+      <c r="L36" s="9">
+        <v>6391</v>
+      </c>
+      <c r="M36" s="9">
+        <v>4820</v>
+      </c>
+      <c r="N36" s="11">
+        <f t="shared" si="2"/>
+        <v>5471.666666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="B37" s="4">
+        <v>8</v>
+      </c>
+      <c r="C37" s="9">
+        <v>119774</v>
+      </c>
+      <c r="D37" s="9">
+        <v>113340</v>
+      </c>
+      <c r="E37" s="9">
+        <v>115700</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="0"/>
+        <v>348814</v>
+      </c>
+      <c r="G37" s="9">
+        <v>8632</v>
+      </c>
+      <c r="H37" s="9">
+        <v>8456</v>
+      </c>
+      <c r="I37" s="9">
+        <v>8319</v>
+      </c>
+      <c r="J37" s="11">
+        <f t="shared" si="1"/>
+        <v>8469</v>
+      </c>
+      <c r="K37" s="9">
+        <v>4923</v>
+      </c>
+      <c r="L37" s="9">
+        <v>5164</v>
+      </c>
+      <c r="M37" s="9">
+        <v>5792</v>
+      </c>
+      <c r="N37" s="11">
+        <f t="shared" si="2"/>
+        <v>5293</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22">
+      <c r="B38" s="4">
+        <v>9</v>
+      </c>
+      <c r="C38" s="9">
+        <v>109432</v>
+      </c>
+      <c r="D38" s="9">
+        <v>116184</v>
+      </c>
+      <c r="E38" s="9">
+        <v>111074</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="0"/>
+        <v>336690</v>
+      </c>
+      <c r="G38" s="9">
+        <v>9697</v>
+      </c>
+      <c r="H38" s="9">
+        <v>8344</v>
+      </c>
+      <c r="I38" s="9">
+        <v>9206</v>
+      </c>
+      <c r="J38" s="11">
+        <f t="shared" si="1"/>
+        <v>9082.3333333333339</v>
+      </c>
+      <c r="K38" s="9">
+        <v>5827</v>
+      </c>
+      <c r="L38" s="9">
+        <v>6592</v>
+      </c>
+      <c r="M38" s="9">
+        <v>6139</v>
+      </c>
+      <c r="N38" s="11">
+        <f t="shared" si="2"/>
+        <v>6186</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="S32:T33"/>
+    <mergeCell ref="U32:V33"/>
+    <mergeCell ref="S34:T35"/>
+    <mergeCell ref="U34:V35"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1545C5B2-AEB2-4BC3-A711-2D6BC9343BD9}">
+  <dimension ref="C28:N70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.625" customWidth="1"/>
+    <col min="17" max="17" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="28" spans="3:14" ht="30">
+      <c r="C28" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="C29" s="4">
+        <v>118147</v>
+      </c>
+      <c r="D29" s="4">
+        <v>4301</v>
+      </c>
+      <c r="G29" s="9">
+        <v>100032131</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="15">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>1733072668096</v>
+      </c>
+      <c r="M29" s="9">
+        <v>1733072668100</v>
+      </c>
+      <c r="N29" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="C30" s="4">
+        <v>116550</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3111</v>
+      </c>
+      <c r="G30" s="9">
+        <v>100002238</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1733072668095</v>
+      </c>
+      <c r="M30" s="9">
+        <v>1733072668100</v>
+      </c>
+      <c r="N30" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="C31" s="4">
+        <v>117219</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4188</v>
+      </c>
+      <c r="G31" s="9">
+        <v>100010520</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>1733072668095</v>
+      </c>
+      <c r="M31" s="9">
+        <v>1733072668100</v>
+      </c>
+      <c r="N31" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="G32" s="9">
+        <v>100018895</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>1733072668095</v>
+      </c>
+      <c r="M32" s="9">
+        <v>1733072668100</v>
+      </c>
+      <c r="N32" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="G33" s="9">
+        <v>100019566</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1733072668096</v>
+      </c>
+      <c r="M33" s="9">
+        <v>1733072668100</v>
+      </c>
+      <c r="N33" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14">
+      <c r="G34" s="9">
+        <v>100027343</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9">
+        <v>1733072668096</v>
+      </c>
+      <c r="M34" s="9">
+        <v>1733072668100</v>
+      </c>
+      <c r="N34" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14">
+      <c r="G35" s="9">
+        <v>100012385</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="9">
+        <v>1</v>
+      </c>
+      <c r="J35" s="15">
+        <v>1</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>1733072668095</v>
+      </c>
+      <c r="M35" s="9">
+        <v>1733072668100</v>
+      </c>
+      <c r="N35" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14">
+      <c r="G36" s="9">
+        <v>100010247</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="15">
+        <v>1</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9">
+        <v>1733072668096</v>
+      </c>
+      <c r="M36" s="9">
+        <v>1733072668100</v>
+      </c>
+      <c r="N36" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14">
+      <c r="G37" s="9">
+        <v>100012652</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1733072668096</v>
+      </c>
+      <c r="M37" s="9">
+        <v>1733072668100</v>
+      </c>
+      <c r="N37" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="G38" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="18"/>
+    </row>
+    <row r="39" spans="3:14">
+      <c r="G39" s="9">
+        <v>100002979</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15">
+        <v>4703</v>
+      </c>
+      <c r="K39" s="9">
+        <v>66</v>
+      </c>
+      <c r="L39" s="9">
+        <v>1733072675593</v>
+      </c>
+      <c r="M39" s="9">
+        <v>1733072680363</v>
+      </c>
+      <c r="N39" s="9">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" ht="15">
+      <c r="C40" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="9">
+        <v>100022763</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1</v>
+      </c>
+      <c r="J40" s="15">
+        <v>4703</v>
+      </c>
+      <c r="K40" s="9">
+        <v>67</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1733072675593</v>
+      </c>
+      <c r="M40" s="9">
+        <v>1733072680363</v>
+      </c>
+      <c r="N40" s="9">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14">
+      <c r="C41" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="D41" s="4">
+        <f>M48-M29</f>
+        <v>12264</v>
+      </c>
+      <c r="G41" s="9">
+        <v>100025248</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="9">
+        <v>1</v>
+      </c>
+      <c r="J41" s="15">
+        <v>4703</v>
+      </c>
+      <c r="K41" s="9">
+        <v>67</v>
+      </c>
+      <c r="L41" s="9">
+        <v>1733072675593</v>
+      </c>
+      <c r="M41" s="9">
+        <v>1733072680363</v>
+      </c>
+      <c r="N41" s="9">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14">
+      <c r="G42" s="9">
+        <v>100017459</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1</v>
+      </c>
+      <c r="J42" s="15">
+        <v>4703</v>
+      </c>
+      <c r="K42" s="9">
+        <v>67</v>
+      </c>
+      <c r="L42" s="9">
+        <v>1733072675593</v>
+      </c>
+      <c r="M42" s="9">
+        <v>1733072680363</v>
+      </c>
+      <c r="N42" s="9">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" ht="15">
+      <c r="C43" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="19">
+        <f>C41/D41*1000</f>
+        <v>81539.46510110893</v>
+      </c>
+      <c r="E43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="9">
+        <v>100021217</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" s="9">
+        <v>1</v>
+      </c>
+      <c r="J43" s="15">
+        <v>4703</v>
+      </c>
+      <c r="K43" s="9">
+        <v>67</v>
+      </c>
+      <c r="L43" s="9">
+        <v>1733072675593</v>
+      </c>
+      <c r="M43" s="9">
+        <v>1733072680363</v>
+      </c>
+      <c r="N43" s="9">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14">
+      <c r="G44" s="9">
+        <v>100021619</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="9">
+        <v>1</v>
+      </c>
+      <c r="J44" s="15">
+        <v>4703</v>
+      </c>
+      <c r="K44" s="9">
+        <v>67</v>
+      </c>
+      <c r="L44" s="9">
+        <v>1733072675593</v>
+      </c>
+      <c r="M44" s="9">
+        <v>1733072680363</v>
+      </c>
+      <c r="N44" s="9">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14">
+      <c r="G45" s="9">
+        <v>100026354</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>4703</v>
+      </c>
+      <c r="K45" s="9">
+        <v>67</v>
+      </c>
+      <c r="L45" s="9">
+        <v>1733072675593</v>
+      </c>
+      <c r="M45" s="9">
+        <v>1733072680363</v>
+      </c>
+      <c r="N45" s="9">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14">
+      <c r="G46" s="9">
+        <v>100000068</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0</v>
+      </c>
+      <c r="J46" s="15">
+        <v>4703</v>
+      </c>
+      <c r="K46" s="9">
+        <v>67</v>
+      </c>
+      <c r="L46" s="9">
+        <v>1733072675593</v>
+      </c>
+      <c r="M46" s="9">
+        <v>1733072680364</v>
+      </c>
+      <c r="N46" s="9">
+        <v>4771</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14">
+      <c r="G47" s="9">
+        <v>100006800</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>4703</v>
+      </c>
+      <c r="K47" s="9">
+        <v>67</v>
+      </c>
+      <c r="L47" s="9">
+        <v>1733072675592</v>
+      </c>
+      <c r="M47" s="9">
+        <v>1733072680364</v>
+      </c>
+      <c r="N47" s="9">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14">
+      <c r="G48" s="9">
+        <v>100001655</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" s="9">
+        <v>1</v>
+      </c>
+      <c r="J48" s="15">
+        <v>4705</v>
+      </c>
+      <c r="K48" s="9">
+        <v>67</v>
+      </c>
+      <c r="L48" s="9">
+        <v>1733072675591</v>
+      </c>
+      <c r="M48" s="9">
+        <v>1733072680364</v>
+      </c>
+      <c r="N48" s="9">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" ht="15">
+      <c r="C63" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="22"/>
+      <c r="J63" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K63" s="22"/>
+    </row>
+    <row r="64" spans="3:13" ht="15">
+      <c r="C64" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K64" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L64" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M64" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13">
+      <c r="C65" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>70</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1</v>
+      </c>
+      <c r="L65" s="4">
+        <v>600</v>
+      </c>
+      <c r="M65" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" ht="15">
+      <c r="C67" s="19"/>
+      <c r="D67" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J67" s="19"/>
+      <c r="K67" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L67" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" ht="15">
+      <c r="C68" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="14">
+        <f>E65/D65</f>
+        <v>70</v>
+      </c>
+      <c r="E68" s="14">
+        <f>E65/C65</f>
+        <v>140</v>
+      </c>
+      <c r="J68" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K68" s="14">
+        <f>L65/K65</f>
+        <v>600</v>
+      </c>
+      <c r="L68" s="14">
+        <f>L65/J65</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" ht="15">
+      <c r="C69" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="14">
+        <f>D68*1000</f>
+        <v>70000</v>
+      </c>
+      <c r="E69" s="14">
+        <f>E68*1000</f>
+        <v>140000</v>
+      </c>
+      <c r="J69" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K69" s="14">
+        <f>K68*1000</f>
+        <v>600000</v>
+      </c>
+      <c r="L69" s="14">
+        <f>L68*1000</f>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" ht="15">
+      <c r="J70" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70" s="23">
+        <f>ROUNDUP(M65/L69,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L70" s="23">
+        <f>ROUNDUP(M65/K69,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="C63:D63"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/docs/Analisis - Experimento.xlsx
+++ b/docs/Analisis - Experimento.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyncthingServiceAcct\Sync\Icesi\S6\Ingeniería de software IV\proyecto final\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4E844F-79B0-4A08-9495-D40117C05152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B546B1C-1119-4303-8CCC-DF954B42F06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="623" activeTab="2" xr2:uid="{968272DF-85B1-48E7-9487-3F6E159DBED0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="689" activeTab="3" xr2:uid="{968272DF-85B1-48E7-9487-3F6E159DBED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Monolito y threadpool clientes" sheetId="1" r:id="rId1"/>
     <sheet name="Nclient - 1worker - 1database" sheetId="2" r:id="rId2"/>
     <sheet name="Nclient - Nworker - 1database" sheetId="3" r:id="rId3"/>
+    <sheet name="Comparativa" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
   <si>
     <t>Tiempo de respuesta</t>
   </si>
@@ -230,6 +231,27 @@
   <si>
     <t>Mínimo de workers necesarios</t>
   </si>
+  <si>
+    <t>Nueva distribución</t>
+  </si>
+  <si>
+    <t>Cliente 1</t>
+  </si>
+  <si>
+    <t>Cliente 2</t>
+  </si>
+  <si>
+    <t>total P/s</t>
+  </si>
+  <si>
+    <t>Promedio T/r</t>
+  </si>
+  <si>
+    <t>Comparativa con esta nueva distribución</t>
+  </si>
+  <si>
+    <t>Con una sola DB</t>
+  </si>
 </sst>
 </file>
 
@@ -286,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +330,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -404,11 +438,24 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -420,18 +467,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7523,6 +7569,182 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>553016</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EAEF8AE-F780-4816-BDE3-98C056F2A38E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="361950"/>
+          <a:ext cx="4058216" cy="1286054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>543489</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{625AF73E-774F-407F-9832-0E53AF745DD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="2000250"/>
+          <a:ext cx="4039164" cy="1257475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>765296</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271C89B2-D60D-4E9F-AD4E-AA5948D8D665}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5362575" y="1276350"/>
+          <a:ext cx="3851396" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Esta prueba final fue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t> realizada usando 2 clientes, 4 workers y 2 servicios de bases de datos, cada una con 70 conexiones.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-CO" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t>Se puede ver como ahora un cliente puede envíar más peticiones por segundo, debido a la mayor fluidez de la red; además de tener un tiempo de respuesta promedio menor, en comparación a cuando solo contabamos con 1 worker y 1 servicio de base de datos.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D2CD9EE-01CF-4873-9CBD-E9C9B1C124E0}" name="Tabla1" displayName="Tabla1" ref="B2:J17" totalsRowShown="0">
   <autoFilter ref="B2:J17" xr:uid="{8D2CD9EE-01CF-4873-9CBD-E9C9B1C124E0}"/>
@@ -8660,8 +8882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E396289D-734B-4F0C-8CD0-B5B44B21C678}">
   <dimension ref="B28:V80"/>
   <sheetViews>
-    <sheetView topLeftCell="F17" zoomScale="72" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37"/>
+    <sheetView topLeftCell="B18" zoomScale="72" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -8673,7 +8895,7 @@
   </cols>
   <sheetData>
     <row r="28" spans="2:22" ht="27" customHeight="1">
-      <c r="B28" s="19"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="22" t="s">
         <v>52</v>
       </c>
@@ -8856,14 +9078,14 @@
         <f>(S29-Q30)/Q29</f>
         <v>130672.42691615621</v>
       </c>
-      <c r="S32" s="25" t="s">
+      <c r="S32" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="T32" s="25"/>
-      <c r="U32" s="13">
+      <c r="T32" s="20"/>
+      <c r="U32" s="21">
         <v>1000000</v>
       </c>
-      <c r="V32" s="13"/>
+      <c r="V32" s="21"/>
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="4">
@@ -8902,10 +9124,10 @@
         <f t="shared" si="2"/>
         <v>2955.5</v>
       </c>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="4">
@@ -8944,15 +9166,15 @@
         <f t="shared" si="2"/>
         <v>3120</v>
       </c>
-      <c r="S34" s="25" t="s">
+      <c r="S34" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="T34" s="25"/>
-      <c r="U34" s="13">
+      <c r="T34" s="20"/>
+      <c r="U34" s="21">
         <f>ROUNDUP(U32/Q32,0)</f>
         <v>8</v>
       </c>
-      <c r="V34" s="13"/>
+      <c r="V34" s="21"/>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="4">
@@ -8991,10 +9213,10 @@
         <f t="shared" si="2"/>
         <v>2781.5</v>
       </c>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="4">
@@ -9129,7 +9351,7 @@
       </c>
     </row>
     <row r="80" spans="14:14">
-      <c r="N80" s="24"/>
+      <c r="N80" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9151,8 +9373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1545C5B2-AEB2-4BC3-A711-2D6BC9343BD9}">
   <dimension ref="C28:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView topLeftCell="A4" zoomScale="76" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -9170,10 +9392,10 @@
   </cols>
   <sheetData>
     <row r="28" spans="3:14" ht="30">
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="17" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="10" t="s">
@@ -9217,7 +9439,7 @@
       <c r="I29" s="9">
         <v>0</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="14">
         <v>0</v>
       </c>
       <c r="K29" s="9">
@@ -9249,7 +9471,7 @@
       <c r="I30" s="9">
         <v>1</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="14">
         <v>0</v>
       </c>
       <c r="K30" s="9">
@@ -9281,7 +9503,7 @@
       <c r="I31" s="9">
         <v>1</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="14">
         <v>0</v>
       </c>
       <c r="K31" s="9">
@@ -9307,7 +9529,7 @@
       <c r="I32" s="9">
         <v>1</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="14">
         <v>0</v>
       </c>
       <c r="K32" s="9">
@@ -9333,7 +9555,7 @@
       <c r="I33" s="9">
         <v>1</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="14">
         <v>0</v>
       </c>
       <c r="K33" s="9">
@@ -9359,7 +9581,7 @@
       <c r="I34" s="9">
         <v>1</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="14">
         <v>0</v>
       </c>
       <c r="K34" s="9">
@@ -9385,7 +9607,7 @@
       <c r="I35" s="9">
         <v>1</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="14">
         <v>1</v>
       </c>
       <c r="K35" s="9">
@@ -9411,7 +9633,7 @@
       <c r="I36" s="9">
         <v>0</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="14">
         <v>1</v>
       </c>
       <c r="K36" s="9">
@@ -9437,7 +9659,7 @@
       <c r="I37" s="9">
         <v>1</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37" s="14">
         <v>0</v>
       </c>
       <c r="K37" s="9">
@@ -9454,16 +9676,16 @@
       </c>
     </row>
     <row r="38" spans="3:14">
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="18"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="25"/>
     </row>
     <row r="39" spans="3:14">
       <c r="G39" s="9">
@@ -9475,7 +9697,7 @@
       <c r="I39" s="9">
         <v>0</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J39" s="14">
         <v>4703</v>
       </c>
       <c r="K39" s="9">
@@ -9492,10 +9714,10 @@
       </c>
     </row>
     <row r="40" spans="3:14" ht="15">
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G40" s="9">
@@ -9507,7 +9729,7 @@
       <c r="I40" s="9">
         <v>1</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="14">
         <v>4703</v>
       </c>
       <c r="K40" s="9">
@@ -9540,7 +9762,7 @@
       <c r="I41" s="9">
         <v>1</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="14">
         <v>4703</v>
       </c>
       <c r="K41" s="9">
@@ -9566,7 +9788,7 @@
       <c r="I42" s="9">
         <v>1</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="14">
         <v>4703</v>
       </c>
       <c r="K42" s="9">
@@ -9583,10 +9805,10 @@
       </c>
     </row>
     <row r="43" spans="3:14" ht="15">
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="15">
         <f>C41/D41*1000</f>
         <v>81539.46510110893</v>
       </c>
@@ -9602,7 +9824,7 @@
       <c r="I43" s="9">
         <v>1</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="14">
         <v>4703</v>
       </c>
       <c r="K43" s="9">
@@ -9628,7 +9850,7 @@
       <c r="I44" s="9">
         <v>1</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="14">
         <v>4703</v>
       </c>
       <c r="K44" s="9">
@@ -9654,7 +9876,7 @@
       <c r="I45" s="9">
         <v>0</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J45" s="14">
         <v>4703</v>
       </c>
       <c r="K45" s="9">
@@ -9680,7 +9902,7 @@
       <c r="I46" s="9">
         <v>0</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="14">
         <v>4703</v>
       </c>
       <c r="K46" s="9">
@@ -9706,7 +9928,7 @@
       <c r="I47" s="9">
         <v>0</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J47" s="14">
         <v>4703</v>
       </c>
       <c r="K47" s="9">
@@ -9732,7 +9954,7 @@
       <c r="I48" s="9">
         <v>1</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J48" s="14">
         <v>4705</v>
       </c>
       <c r="K48" s="9">
@@ -9759,25 +9981,25 @@
       <c r="K63" s="22"/>
     </row>
     <row r="64" spans="3:13" ht="15">
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E64" s="20" t="s">
+      <c r="E64" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J64" s="20" t="s">
+      <c r="J64" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K64" s="20" t="s">
+      <c r="K64" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="L64" s="20" t="s">
+      <c r="L64" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M64" s="20" t="s">
+      <c r="M64" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9805,78 +10027,78 @@
       </c>
     </row>
     <row r="67" spans="3:13" ht="15">
-      <c r="C67" s="19"/>
-      <c r="D67" s="20" t="s">
+      <c r="C67" s="15"/>
+      <c r="D67" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="E67" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J67" s="19"/>
-      <c r="K67" s="20" t="s">
+      <c r="J67" s="15"/>
+      <c r="K67" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L67" s="20" t="s">
+      <c r="L67" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="68" spans="3:13" ht="15">
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="13">
         <f>E65/D65</f>
         <v>70</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="13">
         <f>E65/C65</f>
         <v>140</v>
       </c>
-      <c r="J68" s="20" t="s">
+      <c r="J68" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K68" s="13">
         <f>L65/K65</f>
         <v>600</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L68" s="13">
         <f>L65/J65</f>
         <v>1200</v>
       </c>
     </row>
     <row r="69" spans="3:13" ht="15">
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="13">
         <f>D68*1000</f>
         <v>70000</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="13">
         <f>E68*1000</f>
         <v>140000</v>
       </c>
-      <c r="J69" s="20" t="s">
+      <c r="J69" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K69" s="13">
         <f>K68*1000</f>
         <v>600000</v>
       </c>
-      <c r="L69" s="14">
+      <c r="L69" s="13">
         <f>L68*1000</f>
         <v>1200000</v>
       </c>
     </row>
     <row r="70" spans="3:13" ht="15">
-      <c r="J70" s="20" t="s">
+      <c r="J70" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="K70" s="23">
+      <c r="K70" s="18">
         <f>ROUNDUP(M65/L69,0)</f>
         <v>1</v>
       </c>
-      <c r="L70" s="23">
+      <c r="L70" s="18">
         <f>ROUNDUP(M65/K69,0)</f>
         <v>2</v>
       </c>
@@ -9891,4 +10113,93 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE2EFD5-FB5C-4CDE-BDCE-AC651A92188B}">
+  <dimension ref="G3:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="7:11" ht="15">
+      <c r="G3" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="7:11">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="7:11">
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="4">
+        <v>359970.48236141098</v>
+      </c>
+      <c r="I5" s="4">
+        <v>101296.39384116601</v>
+      </c>
+      <c r="J5" s="26">
+        <f>H5+I5</f>
+        <v>461266.87620257697</v>
+      </c>
+      <c r="K5" s="26">
+        <f>AVERAGE(1475.43,1837.41)</f>
+        <v>1656.42</v>
+      </c>
+    </row>
+    <row r="6" spans="7:11">
+      <c r="G6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="4">
+        <f>AVERAGE('Nclient - 1worker - 1database'!C33:C35)</f>
+        <v>119851</v>
+      </c>
+      <c r="I6" s="4">
+        <f>AVERAGE('Nclient - 1worker - 1database'!D33:D35)</f>
+        <v>118645.66666666667</v>
+      </c>
+      <c r="J6" s="27">
+        <f>H6+I6</f>
+        <v>238496.66666666669</v>
+      </c>
+      <c r="K6" s="28">
+        <f>AVERAGE('Nclient - 1worker - 1database'!J33:J35)</f>
+        <v>5782.833333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>